--- a/RUDN/Importance/Varible_f_class_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Southern Asia.xlsx
@@ -1860,7 +1860,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>465.9542162422682</v>
+        <v>465.9542162422313</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>394.6349926898104</v>
+        <v>394.6349926898063</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>390.2264275735241</v>
+        <v>390.226427573517</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>351.5078103194605</v>
+        <v>351.5078103194604</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>333.8512496454476</v>
+        <v>333.8512496454454</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>316.6639835491559</v>
+        <v>316.6639835491566</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>289.3516010328327</v>
+        <v>289.3516010328397</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>278.6648933423749</v>
+        <v>278.6648933423789</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>238.0415959757051</v>
+        <v>238.0415959757098</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>237.6279085632327</v>
+        <v>237.627908563232</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>231.0126666814164</v>
+        <v>231.012666681414</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>204.7359166147808</v>
+        <v>204.7359166147609</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>196.8555541040469</v>
+        <v>196.8555541040472</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>194.9929656576788</v>
+        <v>194.9929656576744</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>191.9734319715311</v>
+        <v>191.9734319715317</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2201,7 +2201,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>155.8303541083221</v>
+        <v>155.8303541083203</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>154.7160496455433</v>
+        <v>154.7160496455436</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>153.2151873767071</v>
+        <v>153.2151873767054</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>151.9390453597047</v>
+        <v>151.9390453597117</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>142.7441856011029</v>
+        <v>142.7441856011039</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>141.5507150448096</v>
+        <v>141.5507150448226</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>131.6591425657853</v>
+        <v>131.6591425657854</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>122.5360945785475</v>
+        <v>122.5360945785477</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>114.0425728257492</v>
+        <v>114.0425728257489</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>111.8736463549362</v>
+        <v>111.8736463549413</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>103.691554619961</v>
+        <v>103.6915546199613</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>93.46392109795363</v>
+        <v>93.46392109795327</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>82.12316465409995</v>
+        <v>82.12316465409783</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2531,7 +2531,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>81.72721007541548</v>
+        <v>81.72721007541386</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>70.98628039730231</v>
+        <v>70.98628039730389</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>67.12023211337399</v>
+        <v>67.12023211337326</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>66.752587708752</v>
+        <v>66.75258770875556</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>64.98341142855689</v>
+        <v>64.98341142855654</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>63.34390751744052</v>
+        <v>63.34390751744084</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2707,7 +2707,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>62.65766301123576</v>
+        <v>62.65766301123582</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>61.71420707461231</v>
+        <v>61.71420707461227</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>61.50944548292485</v>
+        <v>61.50944548292448</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>59.42603621862642</v>
+        <v>59.42603621862456</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>58.25240844093642</v>
+        <v>58.25240844093639</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>58.23755811833887</v>
+        <v>58.23755811833884</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>58.23719897541074</v>
+        <v>58.23719897541076</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>58.23522223481793</v>
+        <v>58.2352222348179</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>58.23177761555183</v>
+        <v>58.23177761555186</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>58.23112825947544</v>
+        <v>58.23112825947541</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>58.22071598595696</v>
+        <v>58.22071598595701</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>58.21939579449076</v>
+        <v>58.21939579449079</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>58.21154833825599</v>
+        <v>58.21154833825596</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2982,7 +2982,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>58.20981687879165</v>
+        <v>58.20981687879168</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>58.2072104236702</v>
+        <v>58.20721042367016</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>58.20432678724404</v>
+        <v>58.20432678724408</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>58.2024894264553</v>
+        <v>58.20248942645526</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>58.20168505149856</v>
+        <v>58.20168505149852</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>58.20168505149856</v>
+        <v>58.20168505149852</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>58.20108283971322</v>
+        <v>58.20108283971319</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>58.19734468252244</v>
+        <v>58.19734468252246</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>58.19615102944728</v>
+        <v>58.19615102944729</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>58.18844817442363</v>
+        <v>58.18844817442357</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>58.15550798647842</v>
+        <v>58.15550798647838</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>56.5024346384895</v>
+        <v>56.50243463848932</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>53.72551881619145</v>
+        <v>53.72551881619138</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>53.72551881619145</v>
+        <v>53.72551881619138</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>52.88631112132562</v>
+        <v>52.88631112132617</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>52.23244945582123</v>
+        <v>52.23244945582499</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>51.97866096985177</v>
+        <v>51.97866096985138</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>49.41879807713937</v>
+        <v>49.41879807713948</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3312,7 +3312,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>49.02297686986784</v>
+        <v>49.02297686986791</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>48.90697733085625</v>
+        <v>48.90697733085614</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>48.89135928247754</v>
+        <v>48.89135928247768</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>48.81130977073281</v>
+        <v>48.81130977073266</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>48.61429986400417</v>
+        <v>48.61429986400396</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>48.58868734968965</v>
+        <v>48.58868734968914</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>48.47414972223</v>
+        <v>48.47414972222993</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>48.42265612882467</v>
+        <v>48.4226561288248</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>48.32201556947529</v>
+        <v>48.32201556947535</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3488,7 +3488,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>48.22886737113134</v>
+        <v>48.22886737113118</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>47.96254068201713</v>
+        <v>47.96254068201706</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>47.93586569458508</v>
+        <v>47.93586569458492</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>47.67612789632791</v>
+        <v>47.67612789632785</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>47.66560174378967</v>
+        <v>47.66560174378974</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>47.51638336453563</v>
+        <v>47.5163833645357</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>47.42279214724342</v>
+        <v>47.42279214724353</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>47.37384948582141</v>
+        <v>47.37384948582127</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>47.33826635393893</v>
+        <v>47.33826635393885</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>47.33020479806445</v>
+        <v>47.33020479806452</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>47.29459645840203</v>
+        <v>47.29459645840214</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>47.00041176410033</v>
+        <v>47.00041176410023</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>45.62303494156843</v>
+        <v>45.62303494156854</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>45.62303494156843</v>
+        <v>45.62303494156854</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>44.208599955631</v>
+        <v>44.20859995563093</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3917,7 +3917,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>44.208599955631</v>
+        <v>44.20859995563093</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>44.15865143839034</v>
+        <v>44.15865143839047</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>44.14409883882269</v>
+        <v>44.14409883882263</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>39.80416502299094</v>
+        <v>39.80416502298834</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>39.7439397604034</v>
+        <v>39.74393976040339</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>36.32353853575442</v>
+        <v>36.32353853575423</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>35.85645884714317</v>
+        <v>35.85645884714334</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>35.65467344465965</v>
+        <v>35.65467344465977</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>34.85147313108616</v>
+        <v>34.85147313108597</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>31.60238043253769</v>
+        <v>31.6023804325377</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4346,7 +4346,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>30.25363333498411</v>
+        <v>30.2536333349841</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>29.53684201824415</v>
+        <v>29.53684201824414</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>29.51266085660598</v>
+        <v>29.51266085660586</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>29.21947607038828</v>
+        <v>29.21947607038829</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>29.00577231008112</v>
+        <v>29.0057723100811</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>28.84006365568234</v>
+        <v>28.84006365568231</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>28.48070662176559</v>
+        <v>28.48070662175889</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>28.14153914875625</v>
+        <v>28.14153914875624</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>28.10839379775915</v>
+        <v>28.1083937977592</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -4577,7 +4577,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>27.92316821843162</v>
+        <v>27.92316821843163</v>
       </c>
       <c r="C252">
         <v>0</v>
@@ -4599,7 +4599,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>27.38279949938383</v>
+        <v>27.38279949938378</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>27.02038266946844</v>
+        <v>27.02038266946826</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4698,7 +4698,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>26.32886312949877</v>
+        <v>26.32886312949863</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4764,7 +4764,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>25.37398012033874</v>
+        <v>25.3739801203388</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4775,7 +4775,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>25.37398012033874</v>
+        <v>25.3739801203388</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>24.94865815215707</v>
+        <v>24.94865815215938</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4819,7 +4819,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>24.7784724326183</v>
+        <v>24.77847243261829</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>21.59828945324532</v>
+        <v>21.59828945324533</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>21.58950811901392</v>
+        <v>21.58950811901391</v>
       </c>
       <c r="C289">
         <v>0</v>
@@ -5017,7 +5017,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>21.56382898283691</v>
+        <v>21.5638289828369</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>21.41746433387628</v>
+        <v>21.41746433387621</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>20.92931848427367</v>
+        <v>20.92931848427365</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>20.60637729423605</v>
+        <v>20.60637729423608</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>20.36833940436143</v>
+        <v>20.36833940436146</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>20.36833940436136</v>
+        <v>20.36833940436133</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>20.14530464452133</v>
+        <v>20.14530464452138</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -5127,7 +5127,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>19.88289165072233</v>
+        <v>19.88289165072252</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>19.01059439312981</v>
+        <v>19.01059439312971</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -5160,7 +5160,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>18.28104290833126</v>
+        <v>18.28104290833175</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>18.09454255431333</v>
+        <v>18.09454255431293</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -5204,7 +5204,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>16.71946043960549</v>
+        <v>16.71946043960543</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -5215,7 +5215,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>16.60207046260726</v>
+        <v>16.60207046260693</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>16.11283017867067</v>
+        <v>16.11283017867072</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>319</v>
       </c>
       <c r="B319">
-        <v>14.34748092599632</v>
+        <v>14.34748092599629</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>13.73317684185626</v>
+        <v>13.73317684185624</v>
       </c>
       <c r="C321">
         <v>1e-05</v>
@@ -5369,7 +5369,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>12.35166316570679</v>
+        <v>12.35166316570687</v>
       </c>
       <c r="C324">
         <v>2e-05</v>
@@ -5402,7 +5402,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>10.61662960959697</v>
+        <v>10.61662960959664</v>
       </c>
       <c r="C327">
         <v>6.999999999999999e-05</v>
@@ -5556,7 +5556,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>8.545433140330008</v>
+        <v>8.545433140330006</v>
       </c>
       <c r="C341">
         <v>0.00037</v>
@@ -5611,7 +5611,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>8.512260606983792</v>
+        <v>8.512260606983798</v>
       </c>
       <c r="C346">
         <v>0.00038</v>
@@ -5666,7 +5666,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>8.473395162985216</v>
+        <v>8.473395162985218</v>
       </c>
       <c r="C351">
         <v>0.0004</v>
@@ -5688,7 +5688,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>8.459240280800254</v>
+        <v>8.459240280800252</v>
       </c>
       <c r="C353">
         <v>0.0004</v>
@@ -5699,7 +5699,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>8.455615899829084</v>
+        <v>8.455615899829088</v>
       </c>
       <c r="C354">
         <v>0.0004</v>
@@ -5776,7 +5776,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>8.40190732125412</v>
+        <v>8.401907321254125</v>
       </c>
       <c r="C361">
         <v>0.00042</v>
@@ -5787,7 +5787,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>8.4016688621571</v>
+        <v>8.401668862157054</v>
       </c>
       <c r="C362">
         <v>0.00042</v>
@@ -5842,7 +5842,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>8.371192248430257</v>
+        <v>8.371192248430255</v>
       </c>
       <c r="C367">
         <v>0.00043</v>
@@ -5952,7 +5952,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>8.311991498630817</v>
+        <v>8.311991498630823</v>
       </c>
       <c r="C377">
         <v>0.00046</v>
@@ -6007,7 +6007,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>8.2824325394247</v>
+        <v>8.282432539424704</v>
       </c>
       <c r="C382">
         <v>0.00047</v>
@@ -6029,7 +6029,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>8.279778304128293</v>
+        <v>8.279778304128298</v>
       </c>
       <c r="C384">
         <v>0.00047</v>
@@ -6051,7 +6051,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>8.275469991464641</v>
+        <v>8.275469991464647</v>
       </c>
       <c r="C386">
         <v>0.00047</v>
@@ -6117,7 +6117,7 @@
         <v>392</v>
       </c>
       <c r="B392">
-        <v>8.23147816774704</v>
+        <v>8.231478167747037</v>
       </c>
       <c r="C392">
         <v>0.00049</v>
@@ -6150,7 +6150,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>8.218460952780985</v>
+        <v>8.21846095278099</v>
       </c>
       <c r="C395">
         <v>0.00049</v>
@@ -6161,7 +6161,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>8.214776407448083</v>
+        <v>8.214776407448088</v>
       </c>
       <c r="C396">
         <v>0.00049</v>
@@ -6194,7 +6194,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>8.16992197941274</v>
+        <v>8.169921979412736</v>
       </c>
       <c r="C399">
         <v>0.00051</v>
@@ -6227,7 +6227,7 @@
         <v>402</v>
       </c>
       <c r="B402">
-        <v>8.106488225542298</v>
+        <v>8.1064882255423</v>
       </c>
       <c r="C402">
         <v>0.00054</v>
@@ -6238,7 +6238,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>8.102760803304678</v>
+        <v>8.102760803304671</v>
       </c>
       <c r="C403">
         <v>0.00054</v>
@@ -6260,7 +6260,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>8.018498184886312</v>
+        <v>8.018498184886305</v>
       </c>
       <c r="C405">
         <v>0.00059</v>
@@ -6293,7 +6293,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>7.993939414218685</v>
+        <v>7.993939414218683</v>
       </c>
       <c r="C408">
         <v>0.0005999999999999999</v>
@@ -6304,7 +6304,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>7.985593653150023</v>
+        <v>7.985593653150017</v>
       </c>
       <c r="C409">
         <v>0.0005999999999999999</v>
@@ -6348,7 +6348,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>7.895687962200386</v>
+        <v>7.895687962200389</v>
       </c>
       <c r="C413">
         <v>0.00065</v>
@@ -6359,7 +6359,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>7.894950069127134</v>
+        <v>7.894950069127137</v>
       </c>
       <c r="C414">
         <v>0.00065</v>
@@ -6381,7 +6381,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>7.867803074747866</v>
+        <v>7.867803074747872</v>
       </c>
       <c r="C416">
         <v>0.00067</v>
@@ -6414,7 +6414,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>7.818592530964914</v>
+        <v>7.818592530964908</v>
       </c>
       <c r="C419">
         <v>0.0007</v>
@@ -6447,7 +6447,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>7.769794485000892</v>
+        <v>7.769794485000899</v>
       </c>
       <c r="C422">
         <v>0.00073</v>
@@ -6502,7 +6502,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>7.747750461801862</v>
+        <v>7.747750461801864</v>
       </c>
       <c r="C427">
         <v>0.00074</v>
@@ -6513,7 +6513,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>7.712452972694168</v>
+        <v>7.712452972694161</v>
       </c>
       <c r="C428">
         <v>0.00076</v>
@@ -6557,7 +6557,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>7.649074129169998</v>
+        <v>7.649074129170003</v>
       </c>
       <c r="C432">
         <v>0.00081</v>
@@ -6590,7 +6590,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>7.629446464378986</v>
+        <v>7.629446464378991</v>
       </c>
       <c r="C435">
         <v>0.00082</v>
@@ -6601,7 +6601,7 @@
         <v>436</v>
       </c>
       <c r="B436">
-        <v>7.629218702642951</v>
+        <v>7.629218702643013</v>
       </c>
       <c r="C436">
         <v>0.00082</v>
@@ -6612,7 +6612,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>7.608770165171091</v>
+        <v>7.608770165171086</v>
       </c>
       <c r="C437">
         <v>0.00084</v>
@@ -6678,7 +6678,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>7.35423584237515</v>
+        <v>7.354235842375147</v>
       </c>
       <c r="C443">
         <v>0.00104</v>
@@ -6700,7 +6700,7 @@
         <v>445</v>
       </c>
       <c r="B445">
-        <v>7.184183243766735</v>
+        <v>7.18418324376673</v>
       </c>
       <c r="C445">
         <v>0.00121</v>
@@ -6722,7 +6722,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>7.14161240189904</v>
+        <v>7.141612401899042</v>
       </c>
       <c r="C447">
         <v>0.00126</v>
@@ -6821,7 +6821,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>6.75045728794396</v>
+        <v>6.750457287943957</v>
       </c>
       <c r="C456">
         <v>0.00177</v>
@@ -6887,7 +6887,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>6.181569468197908</v>
+        <v>6.181569468197976</v>
       </c>
       <c r="C462">
         <v>0.00293</v>
@@ -6898,7 +6898,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>6.040605455899581</v>
+        <v>6.040605455899578</v>
       </c>
       <c r="C463">
         <v>0.00333</v>
@@ -6909,7 +6909,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>5.940666898467628</v>
+        <v>5.940666898467624</v>
       </c>
       <c r="C464">
         <v>0.00364</v>
@@ -6931,7 +6931,7 @@
         <v>466</v>
       </c>
       <c r="B466">
-        <v>5.770643567707991</v>
+        <v>5.770643567707994</v>
       </c>
       <c r="C466">
         <v>0.00424</v>
@@ -6942,7 +6942,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>5.739138956888677</v>
+        <v>5.739138956888673</v>
       </c>
       <c r="C467">
         <v>0.00436</v>
@@ -6953,7 +6953,7 @@
         <v>468</v>
       </c>
       <c r="B468">
-        <v>5.708509231218193</v>
+        <v>5.70850923121819</v>
       </c>
       <c r="C468">
         <v>0.00448</v>
@@ -6997,7 +6997,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>5.276441606175355</v>
+        <v>5.276441606175276</v>
       </c>
       <c r="C472">
         <v>0.00661</v>
@@ -7030,7 +7030,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>5.122025432428976</v>
+        <v>5.122025432428981</v>
       </c>
       <c r="C475">
         <v>0.00761</v>
@@ -7041,7 +7041,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>5.108855532458699</v>
+        <v>5.108855532458709</v>
       </c>
       <c r="C476">
         <v>0.0077</v>
@@ -7052,7 +7052,7 @@
         <v>477</v>
       </c>
       <c r="B477">
-        <v>4.967078000083856</v>
+        <v>4.967078000083855</v>
       </c>
       <c r="C477">
         <v>0.00876</v>
